--- a/FlashMethods/flashmethods/data/input_data.xlsx
+++ b/FlashMethods/flashmethods/data/input_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\FlashMethods\FlashMethods\flashmethods\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02715C20-4575-4E35-A501-6AD0AAC0914A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -115,11 +121,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,13 +141,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF6cb6ff"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6CB6FF"/>
       <name val="Consolas"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFf47067"/>
+      <color rgb="FFF47067"/>
       <name val="Consolas"/>
       <family val="2"/>
     </font>
@@ -174,49 +186,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -227,10 +242,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -268,71 +283,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,7 +375,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -383,11 +398,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -396,13 +411,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -412,7 +427,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -421,7 +436,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -430,7 +445,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -438,10 +453,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -506,42 +521,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,18 +591,18 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5">
-        <v>0.386</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="C2" s="5">
-        <v>28.014</v>
+        <v>28.013999999999999</v>
       </c>
       <c r="D2" s="6">
-        <v>3.394388</v>
+        <v>3.3943880000000002</v>
       </c>
       <c r="E2" s="5">
         <v>126.2</v>
@@ -631,7 +636,7 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -642,7 +647,7 @@
         <v>44.01</v>
       </c>
       <c r="D3" s="6">
-        <v>7.376459</v>
+        <v>7.3764589999999997</v>
       </c>
       <c r="E3" s="5">
         <v>304.19995</v>
@@ -651,10 +656,10 @@
         <v>94</v>
       </c>
       <c r="G3" s="5">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="H3" s="7">
-        <v>45354</v>
+        <v>3.03</v>
       </c>
       <c r="I3" s="8">
         <v>-78.5</v>
@@ -676,15 +681,15 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
-        <v>73.445</v>
+        <v>73.444000000000003</v>
       </c>
       <c r="C4" s="5">
-        <v>16.043</v>
+        <v>16.042999999999999</v>
       </c>
       <c r="D4" s="6">
         <v>4.600155</v>
@@ -693,16 +698,16 @@
         <v>190.6</v>
       </c>
       <c r="F4" s="5">
-        <v>99.00002</v>
+        <v>99.000020000000006</v>
       </c>
       <c r="G4" s="5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H4" s="7">
         <v>0.63</v>
       </c>
       <c r="I4" s="8">
-        <v>-161.55</v>
+        <v>-161.55000000000001</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -721,12 +726,12 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="5">
-        <v>7.677</v>
+        <v>7.6769999999999996</v>
       </c>
       <c r="C5" s="5">
         <v>30.07</v>
@@ -735,16 +740,16 @@
         <v>4.883864</v>
       </c>
       <c r="E5" s="5">
-        <v>305.39996</v>
+        <v>305.39996000000002</v>
       </c>
       <c r="F5" s="5">
         <v>148</v>
       </c>
       <c r="G5" s="5">
-        <v>0.098</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H5" s="7">
-        <v>23043</v>
+        <v>2.63</v>
       </c>
       <c r="I5" s="8">
         <v>-88.55</v>
@@ -766,18 +771,18 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="5">
-        <v>4.522</v>
+        <v>4.5220000000000002</v>
       </c>
       <c r="C6" s="5">
-        <v>44.097</v>
+        <v>44.097000000000001</v>
       </c>
       <c r="D6" s="6">
-        <v>4.245517</v>
+        <v>4.2455170000000004</v>
       </c>
       <c r="E6" s="5">
         <v>369.79996</v>
@@ -789,7 +794,7 @@
         <v>0.152</v>
       </c>
       <c r="H6" s="7">
-        <v>45448</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="I6" s="8">
         <v>-42.05</v>
@@ -811,18 +816,18 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="5">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="C7" s="5">
-        <v>58.124</v>
+        <v>58.124000000000002</v>
       </c>
       <c r="D7" s="6">
-        <v>3.647701</v>
+        <v>3.6477010000000001</v>
       </c>
       <c r="E7" s="5">
         <v>408.1001</v>
@@ -831,10 +836,10 @@
         <v>263</v>
       </c>
       <c r="G7" s="5">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="H7" s="7">
-        <v>47300</v>
+        <v>7.29</v>
       </c>
       <c r="I7" s="8">
         <v>-11.75</v>
@@ -856,21 +861,21 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="5">
-        <v>1.656</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="C8" s="5">
-        <v>58.124</v>
+        <v>58.124000000000002</v>
       </c>
       <c r="D8" s="6">
-        <v>3.799688</v>
+        <v>3.7996880000000002</v>
       </c>
       <c r="E8" s="5">
-        <v>425.2001</v>
+        <v>425.20010000000002</v>
       </c>
       <c r="F8" s="5">
         <v>255</v>
@@ -879,7 +884,7 @@
         <v>0.193</v>
       </c>
       <c r="H8" s="7">
-        <v>31594</v>
+        <v>7.86</v>
       </c>
       <c r="I8" s="8">
         <v>-0.45</v>
@@ -901,15 +906,15 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="5">
-        <v>0.554</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="C9" s="5">
-        <v>72.151</v>
+        <v>72.150999999999996</v>
       </c>
       <c r="D9" s="6">
         <v>3.384255</v>
@@ -921,10 +926,10 @@
         <v>306</v>
       </c>
       <c r="G9" s="5">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="H9" s="7">
-        <v>34243</v>
+        <v>10.93</v>
       </c>
       <c r="I9" s="7">
         <v>27.85</v>
@@ -946,15 +951,15 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="5">
-        <v>0.665</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="C10" s="5">
-        <v>72.151</v>
+        <v>72.150999999999996</v>
       </c>
       <c r="D10" s="6">
         <v>3.374123</v>
@@ -963,16 +968,16 @@
         <v>469.6</v>
       </c>
       <c r="F10" s="5">
-        <v>304.0001</v>
+        <v>304.00009999999997</v>
       </c>
       <c r="G10" s="5">
         <v>0.251</v>
       </c>
       <c r="H10" s="7">
-        <v>43435</v>
+        <v>12.18</v>
       </c>
       <c r="I10" s="7">
-        <v>36.05</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -991,7 +996,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -999,19 +1004,19 @@
         <v>0.754</v>
       </c>
       <c r="C11" s="5">
-        <v>86.178</v>
+        <v>86.177999999999997</v>
       </c>
       <c r="D11" s="6">
         <v>2.968823</v>
       </c>
       <c r="E11" s="5">
-        <v>507.4001</v>
+        <v>507.40010000000001</v>
       </c>
       <c r="F11" s="5">
-        <v>370.0001</v>
+        <v>370.00009999999997</v>
       </c>
       <c r="G11" s="5">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="H11" s="7">
         <v>17.98</v>
@@ -1020,7 +1025,7 @@
         <v>68.75</v>
       </c>
       <c r="J11" s="7">
-        <v>0.664</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1036,36 +1041,36 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="5">
-        <v>1.372</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="C12" s="5">
-        <v>91.925</v>
+        <v>91.924999999999997</v>
       </c>
       <c r="D12" s="6">
-        <v>3.574564</v>
+        <v>3.5745640000000001</v>
       </c>
       <c r="E12" s="5">
-        <v>546.6401</v>
+        <v>546.64009999999996</v>
       </c>
       <c r="F12" s="5">
-        <v>425.4445</v>
+        <v>425.44450000000001</v>
       </c>
       <c r="G12" s="5">
-        <v>0.436319</v>
+        <v>0.43631900000000001</v>
       </c>
       <c r="H12" s="7">
-        <v>26451</v>
+        <v>6.72</v>
       </c>
       <c r="I12" s="7">
         <v>91.95</v>
       </c>
       <c r="J12" s="7">
-        <v>0.738</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1081,12 +1086,12 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <v>1.596</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="C13" s="5">
         <v>105.718</v>
@@ -1095,22 +1100,22 @@
         <v>3.122868</v>
       </c>
       <c r="E13" s="5">
-        <v>569.9407</v>
+        <v>569.94069999999999</v>
       </c>
       <c r="F13" s="5">
-        <v>471.2443</v>
+        <v>471.24430000000001</v>
       </c>
       <c r="G13" s="5">
-        <v>0.472542</v>
+        <v>0.47254200000000002</v>
       </c>
       <c r="H13" s="7">
-        <v>45364</v>
+        <v>13.04</v>
       </c>
       <c r="I13" s="7">
         <v>116.75</v>
       </c>
       <c r="J13" s="7">
-        <v>0.765</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1126,12 +1131,12 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="5">
-        <v>0.818</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="C14" s="5">
         <v>120.343</v>
@@ -1140,13 +1145,13 @@
         <v>2.771944</v>
       </c>
       <c r="E14" s="5">
-        <v>591.9464</v>
+        <v>591.94640000000004</v>
       </c>
       <c r="F14" s="5">
         <v>523.4991</v>
       </c>
       <c r="G14" s="5">
-        <v>0.510256</v>
+        <v>0.51025600000000004</v>
       </c>
       <c r="H14" s="7">
         <v>19.41</v>
@@ -1155,7 +1160,7 @@
         <v>142.25</v>
       </c>
       <c r="J14" s="7">
-        <v>0.781</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1171,36 +1176,36 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="5">
-        <v>1.066</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="C15" s="5">
         <v>140.56</v>
       </c>
       <c r="D15" s="6">
-        <v>2.50968</v>
+        <v>2.5096799999999999</v>
       </c>
       <c r="E15" s="5">
-        <v>600.8699</v>
+        <v>600.86990000000003</v>
       </c>
       <c r="F15" s="5">
-        <v>600.5144</v>
+        <v>600.51440000000002</v>
       </c>
       <c r="G15" s="5">
-        <v>0.616047</v>
+        <v>0.61604700000000001</v>
       </c>
       <c r="H15" s="7">
-        <v>45641</v>
+        <v>15.12</v>
       </c>
       <c r="I15" s="7">
-        <v>175.324</v>
+        <v>175.32400000000001</v>
       </c>
       <c r="J15" s="7">
-        <v>0.7941</v>
+        <v>0.79410000000000003</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1216,36 +1221,36 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="5">
-        <v>0.814</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="C16" s="5">
-        <v>169.086</v>
+        <v>169.08600000000001</v>
       </c>
       <c r="D16" s="6">
-        <v>2.19141</v>
+        <v>2.1914099999999999</v>
       </c>
       <c r="E16" s="5">
-        <v>633.8047</v>
+        <v>633.80470000000003</v>
       </c>
       <c r="F16" s="5">
-        <v>712.9235</v>
+        <v>712.92349999999999</v>
       </c>
       <c r="G16" s="5">
-        <v>0.692018</v>
+        <v>0.69201800000000002</v>
       </c>
       <c r="H16" s="7">
         <v>19.66</v>
       </c>
       <c r="I16" s="7">
-        <v>218.058</v>
+        <v>218.05799999999999</v>
       </c>
       <c r="J16" s="7">
-        <v>0.8177</v>
+        <v>0.81769999999999998</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1261,24 +1266,24 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="5">
-        <v>0.677</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="C17" s="5">
-        <v>199.098</v>
+        <v>199.09800000000001</v>
       </c>
       <c r="D17" s="6">
-        <v>1.972617</v>
+        <v>1.9726170000000001</v>
       </c>
       <c r="E17" s="5">
-        <v>664.5171</v>
+        <v>664.51710000000003</v>
       </c>
       <c r="F17" s="5">
-        <v>838.2478</v>
+        <v>838.24779999999998</v>
       </c>
       <c r="G17" s="5">
         <v>0.768374</v>
@@ -1287,10 +1292,10 @@
         <v>20.81</v>
       </c>
       <c r="I17" s="7">
-        <v>256.457</v>
+        <v>256.45699999999999</v>
       </c>
       <c r="J17" s="7">
-        <v>0.8391</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1306,36 +1311,36 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="5">
-        <v>0.641</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="C18" s="5">
         <v>236.892</v>
       </c>
       <c r="D18" s="6">
-        <v>1.792949</v>
+        <v>1.7929489999999999</v>
       </c>
       <c r="E18" s="5">
-        <v>699.4725</v>
+        <v>699.47249999999997</v>
       </c>
       <c r="F18" s="5">
         <v>1003.597</v>
       </c>
       <c r="G18" s="5">
-        <v>0.859284</v>
+        <v>0.85928400000000005</v>
       </c>
       <c r="H18" s="7">
         <v>17.47</v>
       </c>
       <c r="I18" s="7">
-        <v>298.203</v>
+        <v>298.20299999999997</v>
       </c>
       <c r="J18" s="7">
-        <v>0.8469</v>
+        <v>0.84689999999999999</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1351,21 +1356,21 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="5">
-        <v>0.345</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="C19" s="5">
-        <v>269.752</v>
+        <v>269.75200000000001</v>
       </c>
       <c r="D19" s="6">
-        <v>1.694122</v>
+        <v>1.6941219999999999</v>
       </c>
       <c r="E19" s="5">
-        <v>727.1604</v>
+        <v>727.16039999999998</v>
       </c>
       <c r="F19" s="5">
         <v>1147.239</v>
@@ -1374,13 +1379,13 @@
         <v>0.931732</v>
       </c>
       <c r="H19" s="7">
-        <v>43374</v>
+        <v>10.18</v>
       </c>
       <c r="I19" s="7">
-        <v>330.989</v>
+        <v>330.98899999999998</v>
       </c>
       <c r="J19" s="7">
-        <v>0.8559</v>
+        <v>0.85589999999999999</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1396,36 +1401,36 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="5">
-        <v>0.464</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="C20" s="5">
         <v>310.637</v>
       </c>
       <c r="D20" s="6">
-        <v>1.573101</v>
+        <v>1.5731010000000001</v>
       </c>
       <c r="E20" s="5">
-        <v>767.4636</v>
+        <v>767.46360000000004</v>
       </c>
       <c r="F20" s="5">
-        <v>1337.256</v>
+        <v>1337.2560000000001</v>
       </c>
       <c r="G20" s="5">
-        <v>0.972036</v>
+        <v>0.97203600000000001</v>
       </c>
       <c r="H20" s="7">
-        <v>45605</v>
+        <v>9.11</v>
       </c>
       <c r="I20" s="7">
-        <v>367.594</v>
+        <v>367.59399999999999</v>
       </c>
       <c r="J20" s="7">
-        <v>0.8728</v>
+        <v>0.87280000000000002</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1441,36 +1446,36 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="5">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="C21" s="5">
-        <v>372.292</v>
+        <v>372.29199999999997</v>
       </c>
       <c r="D21" s="6">
-        <v>1.488414</v>
+        <v>1.4884139999999999</v>
       </c>
       <c r="E21" s="5">
-        <v>813.2253</v>
+        <v>813.22529999999995</v>
       </c>
       <c r="F21" s="5">
-        <v>1629.407</v>
+        <v>1629.4069999999999</v>
       </c>
       <c r="G21" s="5">
-        <v>1.076324</v>
+        <v>1.0763240000000001</v>
       </c>
       <c r="H21" s="8">
         <v>-14.21</v>
       </c>
       <c r="I21" s="7">
-        <v>416.965</v>
+        <v>416.96499999999997</v>
       </c>
       <c r="J21" s="7">
-        <v>0.8885</v>
+        <v>0.88849999999999996</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1486,21 +1491,21 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="5">
-        <v>0.259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="C22" s="5">
-        <v>448.232</v>
+        <v>448.23200000000003</v>
       </c>
       <c r="D22" s="6">
         <v>1.424685</v>
       </c>
       <c r="E22" s="5">
-        <v>865.1088</v>
+        <v>865.10879999999997</v>
       </c>
       <c r="F22" s="5">
         <v>1997.867</v>
@@ -1512,10 +1517,10 @@
         <v>-49.83</v>
       </c>
       <c r="I22" s="7">
-        <v>464.691</v>
+        <v>464.69099999999997</v>
       </c>
       <c r="J22" s="7">
-        <v>0.9076</v>
+        <v>0.90759999999999996</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1531,7 +1536,7 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>0.109</v>
       </c>
       <c r="C23" s="5">
-        <v>701.123</v>
+        <v>701.12300000000005</v>
       </c>
       <c r="D23" s="6">
         <v>1.351062</v>
@@ -1548,7 +1553,7 @@
         <v>1039.5869</v>
       </c>
       <c r="F23" s="5">
-        <v>3509.115</v>
+        <v>3509.1149999999998</v>
       </c>
       <c r="G23" s="5">
         <v>1.109354</v>
@@ -1560,7 +1565,7 @@
         <v>596.61</v>
       </c>
       <c r="J23" s="7">
-        <v>0.9606</v>
+        <v>0.96060000000000001</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1576,7 +1581,7 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1601,7 +1606,7 @@
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1626,7 +1631,7 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1651,7 +1656,7 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1676,7 +1681,7 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1701,7 +1706,7 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1726,7 +1731,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1751,7 +1756,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1776,7 +1781,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
